--- a/va_facility_data_2025-02-20/Central Alabama VA Medical Center-Montgomery - Facility Data.xlsx"; filename*=UTF-8''Central%20Alabama%20VA%20Medical%20Center-Montgomery%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Central Alabama VA Medical Center-Montgomery - Facility Data.xlsx"; filename*=UTF-8''Central%20Alabama%20VA%20Medical%20Center-Montgomery%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R4f09f10187f346cea68298a3b25c1cb1"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="Rb41beb289a23442f8386e35228f8d06d"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R3544436fb383475fbd406aa52a35e989"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="Rf83f6b7713d14a99986bd705e1f9dc51"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R47bc13bc620c407a91c7c3c1442af7b5"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="Rdf046003ec0b4079af6de14ae37e9206"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R38070130da414a2bbd133677c57c69d8"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="Re286bfab7e87441e8844db4cd17f0b70"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Re355304e8d0d4c8eb7b00b188d11d905"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="Rd09b0b27687c4ba69a61c45e6df35aa9"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R5998ed18b12e4817b1096f7701e34b6b"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="R9b57872fc7b1418b812807b0376f1d7b"/>
   </x:sheets>
 </x:workbook>
 </file>
